--- a/Criando um Dashboard de Vendas do Xbox com Excel/Criando um Dashboard de Vendas do Xbox com Excel.xlsx
+++ b/Criando um Dashboard de Vendas do Xbox com Excel/Criando um Dashboard de Vendas do Xbox com Excel.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5db5e60a3180bc7c/Documents/Projetos/Heineken_Dio/Criando um Dashboard de Vendas do Xbox com Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5db5e60a3180bc7c/Documents/Projetos/Heineken_Dio/Projetos/Criando um Dashboard de Vendas do Xbox com Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="469" documentId="13_ncr:1_{3C2F8ED6-40B2-4E08-832A-7140AC03FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E1EA02-0595-425F-877A-43C2489DBC00}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{22C68B6D-FEA4-4557-84BC-73731503AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C188D73-A0D4-412A-A6A6-1F780C2EEFB7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="49170" yWindow="-4770" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
-    <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
+    <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="B̳ases" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
+    <sheet name="C̳álculos" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="326">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1144,8 +1144,11 @@
     <t>Soma de EA Play Season Pass</t>
   </si>
   <si>
+    <t>Soma de Minecraft Season Pass Price</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Pergunta de negócio 3 - </t>
+      <t xml:space="preserve">Pergunta de negócio 4 - </t>
     </r>
     <r>
       <rPr>
@@ -1170,7 +1173,33 @@
     </r>
   </si>
   <si>
-    <t>Soma de Minecraft Season Pass Price</t>
+    <r>
+      <t xml:space="preserve">Pergunta de negócio 5 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Total de vendas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Xbox Game Pass por plano</t>
+    </r>
+  </si>
+  <si>
+    <t>(Tudo)</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1208,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1357,10 +1386,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1369,74 +1398,6 @@
     <cellStyle name="Título 2" xfId="3" builtinId="17"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF22C55E"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF22C55E"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF22C55E"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1479,15 +1440,83 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF22C55E"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF22C55E"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF22C55E"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{6BCE6345-1FD5-49F5-AE40-DAC31AF653D7}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
     <tableStyle name="SlicerStyleLight6 2 2" pivot="0" table="0" count="10" xr9:uid="{66B5F2AC-D914-4428-A37C-801D397D1866}">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1506,703 +1535,7 @@
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="40">
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.79998168889431442"/>
-              <bgColor theme="9" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.59999389629810485"/>
-              <bgColor theme="9" tint="0.59999389629810485"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFE0E0E0"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFE0E0E0"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFE0E0E0"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFE0E0E0"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.79998168889431442"/>
-              <bgColor theme="9" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.59999389629810485"/>
-              <bgColor theme="9" tint="0.59999389629810485"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFE0E0E0"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFE0E0E0"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFE0E0E0"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFE0E0E0"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <gradientFill degree="90">
-              <stop position="0">
-                <color rgb="FFF8E162"/>
-              </stop>
-              <stop position="1">
-                <color rgb="FFFCF7E0"/>
-              </stop>
-            </gradientFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.79998168889431442"/>
-              <bgColor theme="9" tint="0.79998168889431442"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="9" tint="0.59999389629810485"/>
-              <bgColor theme="9" tint="0.59999389629810485"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FF999999"/>
-            </left>
-            <right style="thin">
-              <color rgb="FF999999"/>
-            </right>
-            <top style="thin">
-              <color rgb="FF999999"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FF999999"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF828282"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFE0E0E0"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFE0E0E0"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFE0E0E0"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFE0E0E0"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
-        <dxf>
-          <font>
-            <color rgb="FF000000"/>
-          </font>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor rgb="FFFFFFFF"/>
-              <bgColor rgb="FFFFFFFF"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color rgb="FFCCCCCC"/>
-            </left>
-            <right style="thin">
-              <color rgb="FFCCCCCC"/>
-            </right>
-            <top style="thin">
-              <color rgb="FFCCCCCC"/>
-            </top>
-            <bottom style="thin">
-              <color rgb="FFCCCCCC"/>
-            </bottom>
-            <vertical/>
-            <horizontal/>
-          </border>
-        </dxf>
+      <x14:dxfs count="16">
         <dxf>
           <font>
             <color rgb="FF000000"/>
@@ -2673,6 +2006,18 @@
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
         <x14:slicerStyle name="SlicerStyleLight6 2">
           <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="15"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="14"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="13"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="12"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="11"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="10"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="9"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="8"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+        <x14:slicerStyle name="SlicerStyleLight6 2 2">
+          <x14:slicerStyleElements>
             <x14:slicerStyleElement type="unselectedItemWithData" dxfId="7"/>
             <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="6"/>
             <x14:slicerStyleElement type="selectedItemWithData" dxfId="5"/>
@@ -2681,18 +2026,6 @@
             <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="2"/>
             <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="1"/>
             <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
-          </x14:slicerStyleElements>
-        </x14:slicerStyle>
-        <x14:slicerStyle name="SlicerStyleLight6 2 2">
-          <x14:slicerStyleElements>
-            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="31"/>
-            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="30"/>
-            <x14:slicerStyleElement type="selectedItemWithData" dxfId="29"/>
-            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="28"/>
-            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="27"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="26"/>
-            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="25"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="24"/>
           </x14:slicerStyleElements>
         </x14:slicerStyle>
       </x14:slicerStyles>
@@ -2740,41 +2073,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -2782,6 +2081,28 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:srgbClr val="5BF6A8"/>
@@ -2810,12 +2131,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="22C55E"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2826,7 +2144,7 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2837,7 +2155,113 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="2"/>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="22C55E"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="22C55E"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
             <a:srgbClr val="5BF6A8"/>
@@ -3005,17 +2429,17 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>806</c:v>
+                  <c:v>3847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1502</c:v>
+                  <c:v>3786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD7D-4413-92D9-D85B1554EDAA}"/>
+              <c16:uniqueId val="{00000001-3EDF-4C64-84E3-5670A5346BBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3097,6 +2521,451 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Criando um Dashboard de Vendas do Xbox com Excel.xlsx]C̳álculos!tbl_PLAN_total</c:name>
+    <c:fmtId val="20"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="5BF6A8"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="22C55E"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8883543316918222E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.93568095556528408"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>C̳álculos!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5BF6A8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="22C55E"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>C̳álculos!$B$43:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Core</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ultimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>C̳álculos!$C$43:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28BC-4ADC-A46F-D8A04C05F32E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1039604175"/>
+        <c:axId val="1039604655"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1039604175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039604655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1039604655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1039604175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3117,7 +2986,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -3846,15 +3717,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>117348</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3883,7 +3754,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="561975" y="3057525"/>
+          <a:off x="600075" y="3190875"/>
           <a:ext cx="2886075" cy="1022223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3895,16 +3766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3933,7 +3804,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6915150" y="2647950"/>
+          <a:off x="6953250" y="2657475"/>
           <a:ext cx="238125" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4236,6 +4107,56 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F62BA95-0BF2-B8FA-8961-B628041CEF7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="3000375"/>
+          <a:ext cx="2095500" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4492,25 +4413,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>634920</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>10716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>107157</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>192207</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148379</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="Agrupar 14">
+        <xdr:cNvPr id="38" name="Agrupar 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A90FBC-D45F-4327-4E7E-5BBB51F6A4F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160E33FA-66E4-F64B-14DE-83346C481DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4518,10 +4439,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2302565" y="1451890"/>
-          <a:ext cx="6103766" cy="2219013"/>
-          <a:chOff x="2250281" y="1319215"/>
-          <a:chExt cx="6155532" cy="2228848"/>
+          <a:off x="2558970" y="1448991"/>
+          <a:ext cx="5853987" cy="1671188"/>
+          <a:chOff x="2558970" y="1448991"/>
+          <a:chExt cx="5853987" cy="1671188"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4537,8 +4458,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2259806" y="1319215"/>
-            <a:ext cx="6143624" cy="2228848"/>
+            <a:off x="2568028" y="1448991"/>
+            <a:ext cx="5842662" cy="1671188"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -4590,8 +4511,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3876675" y="1662116"/>
-            <a:ext cx="4386263" cy="1588291"/>
+            <a:off x="4105691" y="1836467"/>
+            <a:ext cx="4171390" cy="1190899"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -4632,7 +4553,7 @@
                 <a:latin typeface="Aptos Narrow"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>R$ 990,00</a:t>
+              <a:t>R$ 2.940,00</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -4669,8 +4590,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3000374" y="1747840"/>
-            <a:ext cx="1416843" cy="1416843"/>
+            <a:off x="3229391" y="1914995"/>
+            <a:ext cx="1347435" cy="1062347"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4690,8 +4611,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2250281" y="1333502"/>
-            <a:ext cx="6155532" cy="607219"/>
+            <a:off x="2558970" y="1459703"/>
+            <a:ext cx="5853987" cy="455292"/>
           </a:xfrm>
           <a:prstGeom prst="round2SameRect">
             <a:avLst/>
@@ -4737,25 +4658,25 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>376236</xdr:colOff>
+      <xdr:colOff>523876</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>202924</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153868</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="Agrupar 25">
+        <xdr:cNvPr id="39" name="Agrupar 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7C1B38-7233-96A2-3D33-C6D03113D1ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BC3427-B010-274B-ADC1-0BDCF29C778A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4763,10 +4684,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8675410" y="1441174"/>
-          <a:ext cx="6296647" cy="2240446"/>
-          <a:chOff x="8853487" y="2069307"/>
-          <a:chExt cx="6348413" cy="2250281"/>
+          <a:off x="8829676" y="1438275"/>
+          <a:ext cx="6038849" cy="1687393"/>
+          <a:chOff x="8829676" y="1438275"/>
+          <a:chExt cx="6038849" cy="1687393"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4782,8 +4703,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8853487" y="2090740"/>
-            <a:ext cx="6143624" cy="2228848"/>
+            <a:off x="8829676" y="1454347"/>
+            <a:ext cx="5844046" cy="1671321"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -4835,8 +4756,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10815637" y="2600329"/>
-            <a:ext cx="4386263" cy="1588291"/>
+            <a:off x="10696147" y="1836467"/>
+            <a:ext cx="4172378" cy="1190994"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -4876,7 +4797,8 @@
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:rPr>
-              <a:t>R$ 1.140,00</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>R$ 3.880,00</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="4400">
               <a:solidFill>
@@ -4899,8 +4821,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8855867" y="2069307"/>
-            <a:ext cx="6155532" cy="607219"/>
+            <a:off x="8831940" y="1438275"/>
+            <a:ext cx="5855373" cy="455329"/>
           </a:xfrm>
           <a:prstGeom prst="round2SameRect">
             <a:avLst/>
@@ -4956,8 +4878,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="9501188" y="3018236"/>
-            <a:ext cx="1549476" cy="752476"/>
+            <a:off x="9445794" y="2149838"/>
+            <a:ext cx="1473920" cy="564251"/>
             <a:chOff x="3495675" y="5400674"/>
             <a:chExt cx="1549476" cy="752476"/>
           </a:xfrm>
@@ -5038,15 +4960,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>84225</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>66948</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>223162</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5062,8 +4984,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2302564" y="3811399"/>
-          <a:ext cx="12564719" cy="3617633"/>
+          <a:off x="2562225" y="3219450"/>
+          <a:ext cx="12192273" cy="2699662"/>
           <a:chOff x="2309812" y="3645697"/>
           <a:chExt cx="12668251" cy="3640928"/>
         </a:xfrm>
@@ -5360,13 +5282,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>314740</xdr:colOff>
+      <xdr:colOff>520262</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>314739</xdr:colOff>
+      <xdr:colOff>520261</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5383,11 +5305,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2236305" y="1143000"/>
-          <a:ext cx="12117456" cy="298174"/>
+          <a:off x="2444312" y="1143000"/>
+          <a:ext cx="12125324" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 19893"/>
+          </a:avLst>
         </a:prstGeom>
         <a:noFill/>
         <a:ln>
@@ -5450,8 +5374,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="36" name="Subscription Type 1">
@@ -5474,7 +5398,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5515,11 +5439,245 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47113</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>51026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114061</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="Agrupar 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018251CF-5403-0C68-F27A-372C7F78D4D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2609338" y="5994626"/>
+          <a:ext cx="12192273" cy="2701699"/>
+          <a:chOff x="2237015" y="7579178"/>
+          <a:chExt cx="12573001" cy="3608758"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="18" name="Agrupar 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A5676B-26EC-4950-B0A7-C1BB25944475}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2237015" y="7579178"/>
+            <a:ext cx="12573001" cy="3608758"/>
+            <a:chOff x="2309812" y="3645697"/>
+            <a:chExt cx="12668251" cy="3640928"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="Retângulo: Cantos Arredondados 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E392702-328F-2B3B-B346-C363909379DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2309813" y="3679033"/>
+              <a:ext cx="12668250" cy="3607592"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6977"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Retângulo: Cantos Superiores Arredondados 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B922836-7AFF-39DB-B1E4-44FB44754367}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2309812" y="3645697"/>
+              <a:ext cx="12668249" cy="607219"/>
+            </a:xfrm>
+            <a:prstGeom prst="round2SameRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="22C55E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="1">
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>TOTAL SUBSCRIPTIONS XBOX GAME PASS BY</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+                  <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> PLAN</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="30" name="Gráfico 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D133440-05FD-42D8-94DD-EC9E5FE0EE96}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="2343149" y="8190139"/>
+          <a:ext cx="12314465" cy="2773136"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="34" name="Gráfico 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CF763B-8C6D-4E6F-AD4F-B1C3F9C564DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7286625" y="8334375"/>
+            <a:ext cx="2095500" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10302,7 +10460,447 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{995E18F0-B068-4706-A710-8B1D0D96BE49}" name="tbl_minecraftseasonpass_total" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E55C03F-DE5E-43B6-8C90-A547CBBE096F}" name="tbl_PLAN_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="23">
+  <location ref="B42:C46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item x="87"/>
+        <item x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{995E18F0-B068-4706-A710-8B1D0D96BE49}" name="tbl_minecraftseasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="B31:C35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10610,8 +11208,8 @@
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -10667,8 +11265,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B1ABFD8-198D-4125-9D55-9AC0E95B31FF}" name="tbl_easeasonpass_total" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B1ABFD8-198D-4125-9D55-9AC0E95B31FF}" name="tbl_easeasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="B21:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10976,8 +11574,8 @@
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -11033,8 +11631,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BA7330D8-AFFB-4A44-9071-4BAC2E33138D}" name="Tbl_annual_total" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="14">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BA7330D8-AFFB-4A44-9071-4BAC2E33138D}" name="Tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="20">
   <location ref="B11:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -11335,8 +11933,8 @@
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -11371,7 +11969,7 @@
   <dataFields count="1">
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="2" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11381,7 +11979,16 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
+    <chartFormat chart="6" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11409,12 +12016,13 @@
     <pivotTable tabId="3" name="Tbl_annual_total"/>
     <pivotTable tabId="3" name="tbl_easeasonpass_total"/>
     <pivotTable tabId="3" name="tbl_minecraftseasonpass_total"/>
+    <pivotTable tabId="3" name="tbl_PLAN_total"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1336902328">
       <items count="3">
-        <i x="1"/>
-        <i x="0"/>
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
         <i x="2" s="1"/>
       </items>
     </tabular>
@@ -11429,22 +12037,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="11" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="8" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11773,7 +12381,7 @@
   <dimension ref="B3:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11945,8 +12553,8 @@
   </sheetPr>
   <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24116,16 +24724,16 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="B3:G35"/>
+  <dimension ref="B3:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
@@ -24158,7 +24766,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -24174,7 +24782,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="14">
-        <v>806</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -24182,7 +24790,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="14">
-        <v>1502</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -24190,7 +24798,7 @@
         <v>314</v>
       </c>
       <c r="C14" s="14">
-        <v>2308</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -24203,7 +24811,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -24218,7 +24826,7 @@
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="21">
         <v>0</v>
       </c>
     </row>
@@ -24226,7 +24834,7 @@
       <c r="B23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="21">
         <v>0</v>
       </c>
     </row>
@@ -24234,29 +24842,29 @@
       <c r="B24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="18">
-        <v>990</v>
+      <c r="C24" s="21">
+        <v>2940</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C25" s="18">
-        <v>990</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="C25" s="21">
+        <v>2940</v>
+      </c>
+      <c r="E25" s="18">
         <f>GETPIVOTDATA("EA Play Season Pass
 Price",$B$21)</f>
-        <v>990</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="G26" s="20"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -24264,7 +24872,7 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -24272,7 +24880,7 @@
         <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -24288,7 +24896,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="14">
-        <v>480</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -24296,7 +24904,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="14">
-        <v>660</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -24304,17 +24912,70 @@
         <v>314</v>
       </c>
       <c r="C35" s="14">
-        <v>1140</v>
-      </c>
-      <c r="E35" s="19">
+        <v>3880</v>
+      </c>
+      <c r="E35" s="18">
         <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$31)</f>
-        <v>1140</v>
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="14">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="14">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="14">
+        <v>7633</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -24322,8 +24983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
   <dimension ref="A1:U302"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24350,10 +25011,10 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:21" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25267,6 +25928,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -25521,27 +26202,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25558,23 +26238,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>